--- a/nieruchomosci.xlsx
+++ b/nieruchomosci.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="148">
   <si>
     <t xml:space="preserve">opis</t>
   </si>
@@ -401,6 +401,69 @@
   </si>
   <si>
     <t xml:space="preserve">Szczegóły ogłoszenia Powierzchnia: 184,44 m² Liczba pokoi: 4 Rynek: wtórny Rodzaj zabudowy: blok Piętro: 3 Liczba pięter: 4 Materiał budynku: wielka płyta Okna: plastikowe Ogrzewanie: elektryczne Rok budowy: 1990 Stan wykończenia: do zamieszkania Forma własności: pełna własność Dostępne od: 2021-04-12 Opis  Marzysz o dużym mieszkaniu dla siebie i  swojej rodziny? Jeśli tak to zapraszam Cię na prezentację dwupoziomowego i przestronnego lokalu mieszkalnego położonego na 3 i 4 piętrze w bloku na Zabobrzu III. Oferowana nieruchomość do sprzedaży ma powierzchnię 184,44m2 i składa się z: PARTER;       przedpokój      duża kuchnia z miejscem na jadalnię      salon z wyjściem na balkon      sypialnia z niewielką garderobą      łazienka z prysznicem   na górę prowadzą drewniane podwieszane schody  GÓRA:       salon/otwarta przestrzeń      łazienka ( wanna, kabina prysznicowa)      sypialnia      pokój 60m2 z możliwością podziału na 2 osobne    Ogrzewanie elektryczne ( w całym bloku). Czynsz 370 zł. Sufity ocieplone. Mieszkanie do odświeżenia. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szczegóły ogłoszenia Powierzchnia: 43,12 m² Liczba pokoi: 2 Rynek: wtórny Rodzaj zabudowy: kamienica Piętro: 2 Liczba pięter: 4 Materiał budynku: cegła Okna: plastikowe Ogrzewanie: elektryczne Rok budowy: 1950 Stan wykończenia: do remontu Czynsz: 300 zł Forma własności: pełna własność Opis  Na sprzedaż 2 pokojowe, słoneczne mieszkanie, zlokalizowane na II piętrze niskiego budynku. Mieszkanie o pow. 43,12 m2 w której skład wchodzą 2 pokoje, duża kuchnia, łazienka oraz przedpokój. Z tyłu budynku miejsce z placem zabaw, ładnie zagospodarowaną zielenią oraz ławkami do wypoczynku tylko dla mieszkańców. W okolicy Intermarche, przychodnia, komunikacja miejska, liczne sklepy i usługi. Budynek przeszedł generalny remont (elewacji, klatki schodowej oraz dachu). Okna PCV. Czynsz 300 zł. Do mieszkania przynależy piwnica. Nieruchomość do remontu z potencjałem. Ogrzewanie elektryczne.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szczegóły ogłoszenia Powierzchnia: 79,60 m² Liczba pokoi: 3 Rynek: wtórny Rodzaj zabudowy: kamienica Piętro: 1 Liczba pięter: 2 Ogrzewanie: elektryczne Rok budowy: 1940 Stan wykończenia: do remontu Forma własności: pełna własność Opis  Kraków - Krowodrza - ul. Nowowiejska  Na sprzedaż mieszkanie o pow. 79,6 m2, składające się z: - przedpokoju (9,04 m2) - 3 oddzielnych pokoi - 12,97 m2, 19,40 m2, 22,51 m2. - oddzielnej, jasnej kuchni (7,62 m2) - łazienki (2,60 m2), - WC (1,66 m2)  Do mieszkania przynależą dwie piwnice (14,38 m2 i 2 m2) oraz strych (26 m2).  Mieszkanie znajduje się na pierwszym piętrze dwupiętrowej kamienicy sprzed II wojny światowej. W latach 70 zostało dobudowane drugie piętro.  Nieruchomość w stanie do remontu. Idealna dla kreatywnej osoby, która stworzy w tej kamienicy piękny apartament.  Cechą charakterystyczną dla mieszkań w kamienicy są wysokie sufity, przez co mieszkanie wydaje się jeszcze większe i niesamowicie przestrzenne. Wysokie okna pozwalają na doskonałe doświetlenie mieszkania.  Na podłodze w dwóch pokojach panele, w jednym pokoju parkiet. Na ścianach gładź. W korytarzu i kuchni oraz WC na podłodze płytki PCV.  W mieszkaniu zostały wymienione stare okna na okna PCV.  Ogrzewanie z elektryczne. Woda podgrzewana przez elektryczny bojler.  W dwóch pokojach wymieniona instalacja elektryczna, około 9 lat temu.  Mieszkanie dwu ekspozycyjne: północny zachód oraz południowy wschód. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szczegóły ogłoszenia Powierzchnia: 140 m² Liczba pokoi: 5 Rynek: wtórny Rodzaj zabudowy: kamienica Piętro: 2 Liczba pięter: 3 Okna: plastikowe Rok budowy: 1900 Opis   POLECAM !!!  OKAZJA, KTÓRA MOŻE JUŻ SIĘ NIE POWTÓRZYĆ !  Doskonała oferta dla inwestora lub dla rodziny.  Zdjęcia załączone w galerii są poglądowe i obrazują możlwości wykończenia wnętrza.  (w ramach naszych usług oferujemy również kompleksowe wykończenie wnętrz)  Przedmiotem sprzedaży jest mieszkanie zlokalizowane w ścisłym Centrum Bydgoszczy. (ul .Gdańska)  Doskonała lokalizacja i infrastruktura miesjca.  W otoczeniu m.in. hotele, restauracje, urzędy.  Mieszkanie w odrestaurowanej kamienicy.  Powierzchnia nieruchomości składa się z:       5 pokoi,      2 komórek lokatorskich,      obszernej piwnicy.   Całość do generalnego remontu z możliwością podziału na kilka mieszkań.  Media:  Gaz doprowadzony do mieszkania.  Ogrzewanie i woda miejska.​​​​(centralne ogrzewanie)  Instalacje elektryczne sprawne.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szczegóły ogłoszenia Powierzchnia: 49 m² Liczba pokoi: 2 Rynek: wtórny Piętro: parter Liczba pięter: 4 Rok budowy: 1930 Czynsz: 180 zł Forma własności: pełna własność Opis  ZADZWOŃ I UMÓW SIĘ NA BEZPŁATNĄ PREZENTACJĘ ZAPRASZAM DO WSPÓŁPRACY --------Kontakt: Monika Cichoń tel: 697-903-373---------   Mieszkanie o powierzchni 49 m kw. na parterze w 4-piętrowym kamienicy. Składa się z: - przedpokoju - łazienki - pokoju - pokoju - kuchni Mieszkanie PO  REMONCIE: m.in.. instalacji elektrycznej, wodnej, pionów. Kuchnia nowa w zabudowie ze sprzętem AGD. Okna wychodzące na podwórko ( strona południowo wschodnia). Ogrzewanie elektryczne ( panele na podczerwień). Czynsz z funduszem remontowym ok. 180zł Planowany remont w tym roku klatki schodowej oraz elewacji od strony podwórka. Kamienica po remoncie dachu i elewacji od frontu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szczegóły ogłoszenia Powierzchnia: 32,92 m² Liczba pokoi: 1 Rynek: wtórny Rodzaj zabudowy: apartamentowiec Piętro: parter Okna: plastikowe Ogrzewanie: elektryczne Rok budowy: 2009 Stan wykończenia: do zamieszkania Czynsz: 255 zł Forma własności: pełna własność Opis  Jeszcze przed sezonem!  Apartament przy ul. Gen. St. Maczka 2a  32,92m2 (+ 5,20m2 -pomieszczenie przynależne)  300m do plaży  500m do zejścia bez barier  300m do Jeziora  W pełni nowocześnie wyposażon (m.in. zmywarka, nowa płyta indukcyjna, pralka, nowy podgrzewacz wody, sofa rozkładana 2 osobowa, 2 pojedyncze łóżka).  Ogrzewanie elektryczne- grzejnik sufitowy na podczerwień sterowany WiFi.  Teren zamknięty, miejsca parkingowe, brama na Pilot.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szczegóły ogłoszenia Powierzchnia: 35 m² Liczba pokoi: 2 Rynek: wtórny Rodzaj zabudowy: kamienica Piętro: 2 Liczba pięter: 3 Materiał budynku: cegła Okna: plastikowe Ogrzewanie: elektryczne Rok budowy: 1956 Stan wykończenia: do zamieszkania Czynsz: 208 zł Forma własności: pełna własność Opis  Oferta Prywatna.  Sprzedam bardzo ładne dwupokojowe mieszkanie zlokalizowane przy ul. Nyskiej 30.  Mieszkanie jest po generalnym remoncie. Wymiona stolarka okienna i drzwiowa oraz wszystkie instancje.   Do mieszkania przynależy piwnica o powierzchni 5,8m2.  Super pod inwestycje.  Mieszkanie posiada energooszczędne ogrzewanie elektryczne (sterowane smartfonem)   Budynek ocieplony. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szczegóły ogłoszenia Powierzchnia: 69 m² Liczba pokoi: 4 Rynek: wtórny Rodzaj zabudowy: dom wolnostojący Piętro: 1 Liczba pięter: 1 Okna: plastikowe Ogrzewanie: elektryczne Rok budowy: 1932 Czynsz: 400 zł Forma własności: pełna własność Opis   MIESZKANIE/PIĘTRO DOMU Z GARAŻEM!  Nieruchomość idealna dla każdego, kto szuka mieszkania lub domu z własnym podwórkiem i garażem!  Słoneczne mieszkanie o powierzchni 68,73 m2 położone na I piętrze dwurodzinnego domu mieszkalnego zlokalizowanego przy ul. Grajewskiej w Ełku.  Funkcjonalny rozkład pomieszczeń: słoneczny salon, 2 ustawne pokoje, widna kuchnia, łazienka z WC oraz przedpokój. Dodatkowo do lokalu przynależy większa cześć strychu z urządzonym oddzielnym pokojem oraz piwnica o powierzchni 9,94 m2.  Budynek mieszalny podpiwniczony, kryty dachówką ceramiczną w dobrym stanie technicznym. Wyposażony w instalacje elektryczną, wodociąg i gaz miejski.  Lokal mieszkalny przeznaczony do własnej aranżacji, wymaga odnowienia. Okna PCV, na podłogach panele i terakota. Ogrzewanie lokalne elektryczne (istnieje możliwość przerobienia na gazowe lub podłączenie do ogrzewania miejskiego), woda ciepła- bojler elektryczny. Niskie koszty utrzymania- mieszkanie bezczynszowe (tylko opłaty eksploatacyjne: woda zimna, prąd, gaz podatek roczny).  W skład nieruchomości wchodzi również własność garażu o pow. 15 m2 i udział w ogrodzonej i zagospodarowanej drzewkami działce o powierzchni 713 m2. Teren wokół budynku ogrodzony, wjazd na posesję z dwóch stron. Podwórko i ogród do dyspozycji jedynie dla dwóch rodzin.  Doskonała lokalizacja! Blisko centrum miasta. W pobliżu szkoła podstawowa, przedszkole, kościół, sklepy spożywcze, przychodnia lekarska, przystanek komunikacji miejskiej.  Mieszkanie idealne dla rodziny chcącej zamieszkać w mieście, mając do dyspozycji własny ogród, podwórko i garaż. Oferta godna uwagi! Zapraszamy do oglądania.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szczegóły ogłoszenia Powierzchnia: 26 m² Liczba pokoi: 1 Rynek: wtórny Rodzaj zabudowy: blok Piętro: parter Liczba pięter: 3 Materiał budynku: pustak Ogrzewanie: elektryczne Rok budowy: 2000 Stan wykończenia: do zamieszkania Opis  Na sprzedaż kameralne mieszkanie w miejscowości Kościelisko koło Zakopanego.  Główne atuty nieruchomości: • cicha i spokojna okolica • piekny widok • bliskość terenów zielonych  Nieruchomość złożona z: • pokój dzienny 20 m.kw • łazienka 4 m.kw • korytarz 2 m.kw  W skład nieruchomości wchodzą też: • miejsce parkingowe • taras • ogródek  Typ ogrzewania: ogrzewanie elektryczne.  Typ własności: własność.  Oferujemy mieszkanie położone w Kościelisku gdzie w najbliższej okolicy znajduje się wejście na szlak do doliny Kościeliskiej. Doskonałe miejsce na spokojny i relaksujący wypoczynek w bezpośrednim sąsiedztwie Tatrzańskiego Parku Narodowego. Mieszkanie składa się z dużego pokoju z aneksem kuchennym, łazienki z prysznicem oraz niewielkiego przedpokoju. Wejście do mieszkania zarówno z klatki schodowej jak i bezpośrednio z parkingu przez taras. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szczegóły ogłoszenia Powierzchnia: 47 m² Liczba pokoi: 2 Rynek: wtórny Rodzaj zabudowy: kamienica Piętro: parter Liczba pięter: 2 Materiał budynku: cegła Okna: plastikowe Ogrzewanie: elektryczne Rok budowy: 1955 Stan wykończenia: do zamieszkania Czynsz: 10 zł Forma własności: udział Dostępne od: 2021-03-15 Opis  Atrakcyjne mieszkanie na sprzedaż  jako doskonała inwestycja znajdujące się w  Przasnyszu, ul. Ostrołęckiej 4 !!!!               Sprzedam mieszkanie okuło 47 m2 na parterze 2 pokoje z kuchnią w Przasnyszu ul. Ostrołęcka 4.  Mieszkanie  bez-czynszowew  kamieniczce w której świeżo zrobiono docieplenie elewacji. Opłaty tylko za zużytą wodę i energię elektryczną.  Mieszkanie w pełni urządzone wraz z meblami i 4 lata temu wyremontowana kuchnia wyposażona w cały sprzęt AGD ( zmywarka, pralka, piekarnik ,indukcja, kuchenka mikrofalowa)  W mieszkaniu jest kominek z nadmuchem oraz ogrzewanie elektryczne panelowe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szczegóły ogłoszenia Powierzchnia: 46 m² Liczba pokoi: 3 Rynek: wtórny Rodzaj zabudowy: kamienica Piętro: 3 Liczba pięter: 3 Materiał budynku: cegła Okna: plastikowe Rok budowy: 1960 Stan wykończenia: do zamieszkania Czynsz: 420 zł Forma własności: pełna własność Opis  Oferujemy na sprzedaż PRZYTULNE MIESZKANIE 3-POKOJOWE w świetnej lokalizacji, zaledwie 1km od STAREGO MIASTA! ​​​​​​​ Lokal usytuowany na trzecim piętrze 3-piętrowego budynku z cegły z lat 60’tych. Budynek po remoncie docieplenia i elewacji oraz po remoncie dachu. Mieszkanie o łącznej powierzchni użytkowej 45,75 mkw. Składa się z przestronnego pokoju dziennego, dwóch sypialni, kuchni, łazienki i przedpokoju.  Do lokalu przynależy piwnica.  Mieszkanie po kapitalnym remoncie na przestrzeni ok. 10 lat. Na podłogach panele/terakota. Drzwi antywłamaniowe. Kuchnia w zabudowie pod wymiar wykonana 3 lata temu. Mieszkanie jest bardzo ciepłe i słoneczne.  Czynsz łącznie z funduszem remontowym ok 420 zł/m-c. Możliwość parkowania przez mieszkańców samochodu na podwórku.  Ogrzewanie elektryczne. Ciepła woda woda podgrzewana bojlerem elektrycznym (80 litrów). Istnieje możliwość zrobienia ogrzewania gazowego, w tym również ciepłej wody – piec gazowy dwufunkcyjny. Dookoła pełne zaplecze handlowo-usługowe, liczne sklepy, szkoły, przedszkola, przychodnia lekarska, szpital, kościół, itp., itd.. Bardzo dobre połączenie komunikacyjne: do przystanku autobusowe i tramwajowego zaledwie 50m. Do ścisłego centrum tylko 2 km. Świetna oferta zarówno do zamieszkania, jak także inwestycyjnie pod wynajem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szczegóły ogłoszenia Powierzchnia: 43,60 m² Liczba pokoi: 3 Rynek: wtórny Rodzaj zabudowy: kamienica Piętro: 1 Liczba pięter: 2 Materiał budynku: cegła Okna: plastikowe Ogrzewanie: inne Rok budowy: 1925 Stan wykończenia: do zamieszkania Czynsz: 60 zł Forma własności: pełna własność Opis  Nieruchomość położona przy ul. Łęczyńskiej w budynku na pierwszym piętrze. Mieszkanie składa się z dwóch sypialni, salonu połączonego z aneksem kuchennym oraz łazienki. W 2020 roku został przeprowadzony remont mieszkania oraz całej kamienicy. Remont mieszkania obejmował wymianę instalacji elektrycznej, wymianę podłóg, remont łazienki oraz wymianę drzwi wewnętrznych i wejściowych. Aktualnie mieszkanie posiada ogrzewanie elektryczne, w trakcie realizacji jest projekt kotłowni gazowej w kamienicy, będzie on również obejmował doprowadzenie instalacji grzewczej do mieszkań. Niskie opłaty eksploatacyjne, czynsz do zarządcy w wysokości 60zł.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szczegóły ogłoszenia Powierzchnia: 81 m² Liczba pokoi: 4 Rynek: wtórny Rodzaj zabudowy: blok Piętro: parter Rok budowy: 2010 Opis  Na powierzchni 81 m2 znajdują się 3 sypialnie, salon, kuchnia, łazienka. Dodatkowo mieszkanie ma 51.4m2  ogrodzony taras.  Ponadto, mieszkanie jest w  wyposażone. W skład wyposażenia wchodzi m.in:   Kuchnia - blat kuchenny  granit ,posiada płytę indukcyjna gwarantująca najszybszy czas gotowania. Mikrofalówkę ,piekarnik z funkcją termoobiegu. Duża lodówka z pojemną zamrażarką   side by side z kostkarka lodu i dystrybutorem wody i  filtrowaniem wody. Zmywarka oraz   elektryczne ogrzewanie podłogowe Łazienka posiada pralkę,  dużą kabinę prysznicową. Ogrzewanie elektryczne podłogowe W salonie jest kanapa z funkcją spania , stół z krzesłami  oraz szafka, są dwa wyjścia na taras. W głównej sypialni jest wykładzina i komody. Posiada wyjście na  taras.. Druga sypialnia posiaka kanape z fukcja spania. W przedpokoju jest duża szafa z drzwiami przesuwnymi. W całym mieszkaniu parapety marmurowe. Mieszkanie posiada rolety antywłamaniowe. Jest również  alarm Czynsz to około 870 zł Mieszkanie znajduje się dobrej lokalizacji blisko obwodnicy, sklepów, szkoły, przedszkoli oraz przystanku autobusowego. 10 - 15min do lotniska w Gdańsku. Spokojna dzielnica.  Za dodatkowa opłata można kupić miejsce postojowe w garażu i  piwnice  . Blok posiada  windę.  można dodatkowo wkupić miejsce postojowe w hali garażowej  z piwnicą koszt 30 000zł</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szczegóły ogłoszenia Powierzchnia: 104 m² Liczba pokoi: 4 Rynek: wtórny Rodzaj zabudowy: blok Piętro: 3 Liczba pięter: 3 Materiał budynku: inne Okna: plastikowe Ogrzewanie: elektryczne Rok budowy: 2002 Stan wykończenia: do zamieszkania Czynsz: 1 500 zł Opis  Duże, komfortowe, rozkładowe i przytulne mieszkanie TBS - przy ul. Rydygiera.  Dwupoziomowe.  W korytarzu przy wejściu pomieszczenie gospodarcze.  Na dolnym poziomie pokój, łazienka z wanną i WC, otwarta kuchnia i duży, wygodny pokój dzienny z jadalnią i częścią wypoczynkową.  Kuchnia w pełni odnowiona 2 lata temu.  Dużo przestrzeni i światła dziennego, okna wychodzą na obie strony budynku.  Na górnym poziomie dwie sypialnie po przeciwnych końcach korytarza, łazienka z prysznicem.  98 m², 4 pokoje, 2 łazienki; stan: bardzo dobry  Budynek: blok mieszkalny; rok budowy: 2002 technika budowy: nowa technologia Rozkład mieszkania: piętro 3/4, dwustronne, dwupoziomowe, poddasze Powierzchnia dodatkowa: balkon Czynsz:1 500 zł siła; ogrzewanie: własne, elektryczne Internet, telewizja kablowa Bezpieczeństwo: domofon, alarm. Budynek położony przy ul. Rydygiera, w pobliżu zjazdu na A4. W budynku znajduje się garaż o pow. 22 m koszt garażu to 40 000,00.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szczegóły ogłoszenia Powierzchnia: 76,50 m² Liczba pokoi: 3 Rynek: wtórny Rodzaj zabudowy: kamienica Piętro: 1 Liczba pięter: 2 Materiał budynku: cegła Ogrzewanie: elektryczne Rok budowy: 1940 Stan wykończenia: do remontu Czynsz: 100 zł Forma własności: pełna własność Opis  Esto Nieruchomości oferuje do sprzedaży mieszkanie 3 pokojowe na ul. Nowowiejskiej - Krowodrza.  Mieszkanie o powierzchni 76,5m2, znajduje się na 1piętrze w 2 piętrowej kamienicy z 1940 r.  Nieruchomość składa się z:  - trzech oddzielnych pokoi - jasnej kuchni - łazienki - wc - przedpokoju  Do mieszania przynależą dwie piwnica.  Mieszkanie w stanie do remontu. Okna pcv, na podłodze panele, parkiet oraz terakota.  Ogrzewanie elektryczne, woda z bojlera elektrycznego.  Rewelacyjna lokalizacja, świetne połączenie komunikacyjne, cała niezbędna infrastruktura handlowo-usługowa w pobliżu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szczegóły ogłoszenia Powierzchnia: 52 m² Obsługa zdalna: Tak Liczba pokoi: 2 Rynek: wtórny Rodzaj zabudowy: blok Piętro: 3 Liczba pięter: 3 Materiał budynku: beton komórkowy Okna: plastikowe Rok budowy: 2000 Stan wykończenia: do zamieszkania Czynsz: 235 zł Forma własności: pełna własność Opis  Sprzedaż tylko indywidualnie - b.proszę pośredników o nie dzwonienie.  Mamy do sprzedania komfortowe mieszkanie (własnościowe - księga wieczysta) dwu pokojowe z balkonem,  idealnie zlokalizowane w spokojnej otoczonej lasem dzielnicy Gdynia Demptowo na Osiedlu "Leśna Dolina" w samym Trójmiejskim Parku Krajobrazowym - 6 km od centrum Gdyni. Widok na las.  Mieszkanie ma świetny rozkład: duży living room (28m2) z balkonem (4m2), sypialnia (10m2), duży korytarz (8m2), łazienka (4m2). Ultra szybki Internet UPC.  Bardzo niskie opłaty: czynsz 235 PLN. Bardzo ekonomiczne ogrzewanie elektryczne (do wglądu rachunki za prąd - średnio ok. 220zł), sterowane smartfonem przez Internet, w oparciu o najnowsze promienniki firmy Eberg (nowe na gwarancji do 2025r). Dodatkowo kominek z rozprowadzeniem ciepła po całym mieszkaniu łącznie z łazienką.   Mieszkanie gotowe do wprowadzenia - całkowicie umeblowane, 3 szafy pod zabudowę typu Komandor, umeblowana kuchnia - fronty biały połysk, lodówka, zmywarka Bosh Super Silent, piekarnik z płytą Hi-Light.  Mieszkanie ma ekspozycję południowo zachodnią więc jest bardzo nasłonecznione - balkon z roletą przeciwsłoneczną. Mieszkanie całkowicie sterowane poprzez Internet, światła, ogrzewanie etc. W mieszkaniu jest całodobowy monitoring Full HD. Alarm. Dwa miejsca parkingowe monitorowane online.  Mieszkanie po gruntownym remoncie 5 lat temu i odmalowane w tym roku tylko oryginalnymi farbami Beckers w kolorach: living-room z aneksem kuchennym - beach sand, duży jasny korytarz - toffi i sypialnia - green hill. Wszystkie drzwi nowe z firmy Voster plus panele na wszystkich podłogach. Wszystkie sufity malowane półmatową farbą Flugger Flutex 2S.  Rok budowy 2000, kameralnie tylko 3 mieszkania na klatce, po jednym na każdym piętrze. Mieszkanie jest na 3 ostatniej kondygnacji. Znakomita lokalizacja w samym Trójmiejskim Parku Krajobrazowym.  Przekładowe odległości: przystanek 20m, kościół 800, dwa sklepy osiedlowe 150m, centrum handlowe Tesco i Lidl ok 1,5 km. Odległość do terminala Stena Line 3,5 km a do plaży w centrum Gdyni 6,1km. Sąsiedztwo bardzo przyjazne.  Z tyłu zielony ogród z miejscem do grilowania przy Potoku Demptowskim.  Mieszkanie leży w samym centrum Trójmiejskiego Parku Krajobrazowego.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szczegóły ogłoszenia Powierzchnia: 56 m² Liczba pokoi: 3 Rynek: wtórny Rodzaj zabudowy: blok Piętro: 3 Liczba pięter: 3 Materiał budynku: pustak Okna: plastikowe Rok budowy: 1990 Stan wykończenia: do remontu Opis  AJK Nieruchomości prezentuje na sprzedaż lokal mieszklany znajdujący się w dzielnicy Mistrzejowice osiedle Kombatantów o łącznej powierzchni 56m2 użytkowej znajdujący się w budynku z lat 90-tych na 3 piętrze bez windy. Mieszkanie o dużym potencjale, składający się z 2 sypialni z balkonem , salonu połączonego z kuchnią , łazienki, oraz osobnej toalety , dodatkowo z przedpokoju wyjście na poddasze które może służyć za małą sypialnie po adaptacji lub garderobe. W 2013 roku była wykonana nowa elewacja , w ostatanim czasie została zawiązana wspólnota mieszkaniowa , będzie ustalany czynsz dla mieszkańców . Ogrzewanie elektryczne z możliwością przerobienia na gazowe . Możliwość zakupu garażu w budynku o powierzchni około 60 m2 w cenie 65 000 zł w księdze wieczystej widnieje jako lokal usługowy, który może posłużyć jako dodatkowe żródło dochodów . Mieszkanie dwustronne, wysokości 257cm, kuchnia z salonem około 23m2 , sypialnie o powierzchniach około 11m2 .  Lokal mieszkalny wymaga własnej aranżacji, oraz remontu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szczegóły ogłoszenia Powierzchnia: 41 m² Obsługa zdalna: Tak Liczba pokoi: 2 Rynek: wtórny Rodzaj zabudowy: kamienica Piętro: 2 Liczba pięter: 4 Materiał budynku: cegła Okna: plastikowe Ogrzewanie: elektryczne Rok budowy: 1950 Stan wykończenia: do zamieszkania Czynsz: 250 zł Forma własności: pełna własność 2 pokojowe mieszkanie w bardzo dogodnej lokalizacji, ścisłe centrum miasta, a jednak cisza, spokój i kojąca zieleń za oknem.  Bliskość tras DTŚ, A1, A4 i DK78  gwarantuje szybki dojazd dokądkolwiek zechcesz.  Mieszkanie po generalnym remoncie w 2016 r.  W pełni umeblowane. Wszystkie meble wliczone są w cenę mieszkania (łącznie z telewizorem).  Zdecydowanymi atutami są:  -przynależne miejsce parkingowe  -niskie opłaty eksploatacyjne 250 zł.  -ogrzewanie elektryczne własne (średnie opłaty 150 zł. miesięcznie)  -gaz z butli (60zł. na 3 m-ce)  -Ciepłe, środkowe mieszkanie  -bardzo dobre sąsiedztwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szczegóły ogłoszenia Powierzchnia: 30 m² Liczba pokoi: 1 Rynek: wtórny Rodzaj zabudowy: kamienica Piętro: 1 Liczba pięter: 2 Materiał budynku: cegła Okna: plastikowe Ogrzewanie: elektryczne Rok budowy: 1930 Czynsz: 280 zł Forma własności: udział Opis   Do sprzedania funkcjonalna kawalerka przy ulicy Św. Kingi w Podgórzu o powierzchni użytkowej 30m2. Położona na pierwszym piętrze w przedwojennej kamienicy.  Lokal po remoncie, częściowo umeblowany.  W skład mieszkania wchodzą: duży pokój, jasna kuchnia, przedpokój oraz łazienka z kabiną prysznicową.  Mieszkanie idealne dla singla lub pod najem krótkoterminowy.  Blisko do komunikacji miejskiej. Łatwy dojazd do centrum.  Stan prawny lokalu - udział ze wskazaniem, więc na chwilę obecną oferta dla osób planujących zakup za gotówkę.  Opłaty:  Cena mieszkania wynosi 349 tysięcy złotych. Ogrzewanie własne elektryczne - dwie taryfy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szczegóły ogłoszenia Powierzchnia: 27 m² Liczba pokoi: 1 Rynek: wtórny Rodzaj zabudowy: kamienica Piętro: 3 Liczba pięter: 4 Materiał budynku: cegła Okna: plastikowe Ogrzewanie: elektryczne Rok budowy: 1936 Czynsz: 330 zł Opis   Do sprzedaży 1-pokojowe mieszkanie o pow. 27 m2 zlokalizowane przy ul. Potrzebnej w dzielnicy Włochy.  W bliskim sąsiedztwie sklepy spożywcze, przystanki autobusowe i stacja kolejowa Warszawa-Włochy, tereny rekreacyjne: Park Kombatantów i Stawy Koziorożca. Bardzo dobry dojazd do centrum.  Lokal znajduje się na trzecim piętrze w 4-piętrowej kamienicy z 1936 roku. Pomieszczenia: salon z aneksem kuchennym, antresola, łazienka z WC, przedpokój, balkon. Ekspozycja okien: wschodnia. Lokal po generalnym remoncie w 2016 roku, m.in. wymiana instalacji, nowe podłogi, drzwi. Wyposażony w sprzęt AGD (lodówka, zmywarka, płyta indukcyjna, pralka).  Kamienica odnowiona zarówno na zewnątrz, jak i w środku (wyremontowana klatka schodowa).  Do mieszkania przynależy piwnica.  Koszty utrzymania: czynsz administracyjny 330 PLN (w tym zaliczki na wodę, fundusz remontowy, wywóz śmieci) + prąd wg wskazań liczników. Ogrzewanie elektryczne.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szczegóły ogłoszenia Powierzchnia: 40,60 m² Liczba pokoi: 1 Rynek: wtórny Rodzaj zabudowy: kamienica Piętro: parter Liczba pięter: 4 Materiał budynku: cegła Ogrzewanie: miejskie Rok budowy: 1900 Stan wykończenia: do zamieszkania Forma własności: pełna własność Opis  Oferujemy Państwu na sprzedaż mieszkanie o powierzchni 40,6 m2 przy ul. Sokolskiej w Katowicach.  Lokalizacja w samym sercu Katowic to główny atut prezentowanego mieszkania. W pobliżu:  - Galeria Katowicka  - Galeria Supersam  - Rynek  - Urząd Miasta  - Dworzec kolejowy i autobusowy  - punkty usługowe i gastronomiczne    Lokal składa się z jednego przestronnego pokoju, otwartej kuchni, łazienki z WC oraz przedpokoju.  Mieszkanie sprzedawane w stanie deweloperskim.  Główne zalety nieruchomości:  - lokalizacja  - centralne ogrzewanie  - ciepła woda z sieci  - winda w kamienicy  - nowe instalacje  - bezpieczna, monitorowana kamienica    Mieszkanie mieści się w pięknej, stylowej kamienicy z 1900r. na zbiegu ulic Sokolskiej i Opolskiej. Znajdują się w niej 33 lokale mieszkalne i 3 lokale użytkowe.  Budynek składa się z piwnicy, parteru, trzech pięter i użytkowego poddasza.   Kamienica obecnie przechodzi kapitalny remont:  - nowe instalacje: cieplne i wodno-kanalizacyjne  - monitoring  - instalacja teletechniczna i domofonowa  - winda  - przyłączenie do sieci miejskiej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szczegóły inwestycji Powierzchnia: 49,34 m² Obsługa zdalna: Tak Liczba pokoi: 3 Rynek: pierwotny Rodzaj zabudowy: blok Piętro: parter Liczba pięter: 3 Okna: plastikowe Ogrzewanie: miejskie Rok budowy: 2021 Stan wykończenia: do wykończenia Forma własności: pełna własność Opis  Bałtycka 31  - DROM DEWELOPER - etap II     Mieszkanie 3-pokojowe o powierzchni: 49,34 m2 + taras 25,67 m2 + komórka 2,02 m2     W cenie mieszkanie, ogródek, komórka lokatorska i miejsce postojowe w garażu podziemnym      salon z aneksem kuchennym     dwa niezależne pokoje     łazienka     taras     komórka lokatorska     miejsce postojowe w garażu  Kaskadowe posadowienie siedmiu małych budynków o wysokości trzech pięter pozwoliło ją wkomponować zabudowę w otaczającą ją przestrzeń. Budynki łącznie mieszczą 112 lokali mieszkalnych o różnych wielkościach i możliwościach do indywidualnej aranżacji.     Każdy z 7 budynków posiada własny garaż podziemny i windę pracująca na 5 poziomach. Na każdej kondygnacji mieszkalnej znajduje się szeroki korytarz, z którego jest dostęp do czterech mieszkań i czterech komórek lokatorskich. media      telewizja kablowa     internet     telefon  zabezpieczenia      drzwi / okna antywłamaniowe     domofon / wideofon  informacje dodatkowe      balkon     piwnica     garaż/miejsce parkingowe     ogródek     winda     pom. użytkowe  </t>
   </si>
 </sst>
 </file>
@@ -501,15 +564,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K101" activeCellId="0" sqref="K101"/>
+      <selection pane="bottomLeft" activeCell="J123" activeCellId="0" sqref="J123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="118.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.37"/>
@@ -3749,6 +3812,678 @@
         <v>11</v>
       </c>
     </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I102" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J102" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H103" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I103" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J103" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I104" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J104" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I105" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J105" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H106" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I106" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J106" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H107" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I107" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J107" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H108" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I108" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J108" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I109" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J109" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I110" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J110" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I111" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J111" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I112" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J112" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H113" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I113" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J113" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H114" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I114" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J114" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I115" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J115" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G116" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H116" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I116" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J116" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F117" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I117" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J117" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H118" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I118" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J118" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H119" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I119" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J119" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G120" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H120" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I120" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J120" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G121" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H121" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I121" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J121" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G122" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I122" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J122" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/nieruchomosci.xlsx
+++ b/nieruchomosci.xlsx
@@ -566,13 +566,13 @@
   </sheetPr>
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J123" activeCellId="0" sqref="J123"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="J36" activeCellId="0" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="118.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.37"/>
@@ -1697,7 +1697,7 @@
         <v>15</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
